--- a/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6627982489352657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4945555160197211</v>
+        <v>0.4945555160197213</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8598826847324432</v>
@@ -685,7 +685,7 @@
         <v>0.7241885988695242</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5356558372116749</v>
+        <v>0.535655837211675</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8164346442350583</v>
@@ -697,7 +697,7 @@
         <v>0.6930997046172886</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5150353817051935</v>
+        <v>0.5150353817051936</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7262407379265229</v>
+        <v>0.7247579125991189</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5972329639967404</v>
+        <v>0.5997044149619978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6032770859527854</v>
+        <v>0.5988217416647617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4376168918904857</v>
+        <v>0.4357170283030056</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8151645227597668</v>
+        <v>0.8163554678999341</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.71210212704267</v>
+        <v>0.7073051462777021</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6676319494815196</v>
+        <v>0.667653300426753</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4889385291805546</v>
+        <v>0.4887283426471985</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7791116739365875</v>
+        <v>0.7827428597633639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6714380439799782</v>
+        <v>0.6705697894703671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6511658682371003</v>
+        <v>0.6509363572075487</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4759853267911525</v>
+        <v>0.4791684180660847</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8204130254102351</v>
+        <v>0.8247159312238163</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7125600667368038</v>
+        <v>0.7182014657409536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7188170424025507</v>
+        <v>0.7178866283359172</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5545042720668453</v>
+        <v>0.5544827085026247</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8969399167584595</v>
+        <v>0.8981830734179947</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8198313392333957</v>
+        <v>0.8148910651427149</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.77070382896975</v>
+        <v>0.7743290143877314</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5831426545983929</v>
+        <v>0.5822364808582431</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8466826932063488</v>
+        <v>0.8484926142640536</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7505374902407902</v>
+        <v>0.7549556573890134</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7270422527211252</v>
+        <v>0.7308454487456233</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5504698018116029</v>
+        <v>0.5529237536337448</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.811461402134186</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5279726883207886</v>
+        <v>0.5279726883207885</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6142336511559258</v>
@@ -833,7 +833,7 @@
         <v>0.8095354619822525</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5437075801427591</v>
+        <v>0.543707580142759</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5531077061041522</v>
+        <v>0.5512377801862102</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4618736396481949</v>
+        <v>0.4619581740838171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7696878110660905</v>
+        <v>0.7675000158115814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5028347783446452</v>
+        <v>0.5081786095930816</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5915619659679117</v>
+        <v>0.587967004370869</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4713053241550058</v>
+        <v>0.4719661953756317</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7739435191589751</v>
+        <v>0.7733980155438701</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4884089768162583</v>
+        <v>0.4874041957666079</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5799901347481479</v>
+        <v>0.5820348406548036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.480103778606439</v>
+        <v>0.4772686368032835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7846003215233808</v>
+        <v>0.7842510670954111</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5088258126468693</v>
+        <v>0.5112147660031552</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6391707215698468</v>
+        <v>0.6427489694946674</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5550787553561451</v>
+        <v>0.5543769290680196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8427496452565204</v>
+        <v>0.8403187093022068</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6166572929354807</v>
+        <v>0.6088869028243677</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6758965040188094</v>
+        <v>0.6723881965036352</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5615616256174081</v>
+        <v>0.5634703451318971</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8445263696496759</v>
+        <v>0.8436969168398369</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5698297978166857</v>
+        <v>0.5652353905832925</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6457942944610028</v>
+        <v>0.6415550198666945</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5449075004429578</v>
+        <v>0.5435119108221333</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8362752601473566</v>
+        <v>0.8344760991578226</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5759843221882985</v>
+        <v>0.5766823195376641</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7254422670179224</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4046299069001682</v>
+        <v>0.4046299069001681</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4109082435131173</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4091294414740564</v>
+        <v>0.4101331957409615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5287193581133891</v>
+        <v>0.5312939453940952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6734054833338274</v>
+        <v>0.6750767062311155</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3537370216360565</v>
+        <v>0.3503879276821331</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3616281316973055</v>
+        <v>0.3555520765719587</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6125448505833107</v>
+        <v>0.6174905532914761</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7171682820217998</v>
+        <v>0.71417939846961</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4329175788556275</v>
+        <v>0.4318687708551756</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.401257464042051</v>
+        <v>0.3942654673158856</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5918443284319272</v>
+        <v>0.5893402117139054</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7112318726944523</v>
+        <v>0.7113395714493559</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4102028091732652</v>
+        <v>0.4099192864650332</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5199264187498892</v>
+        <v>0.5243071227130358</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6377748675843851</v>
+        <v>0.6411187275411026</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7735482436312375</v>
+        <v>0.7699195746857314</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4572276836922669</v>
+        <v>0.4528234627047414</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4650331388955725</v>
+        <v>0.463033531031622</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7191296555825009</v>
+        <v>0.7206346878046106</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.806667143244874</v>
+        <v>0.8045275285237821</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5229632315020396</v>
+        <v>0.5235812266412324</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4791191944413778</v>
+        <v>0.4729519862157288</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6661873064798104</v>
+        <v>0.6657058791664864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7779152879934247</v>
+        <v>0.7776745298490245</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4799104643987028</v>
+        <v>0.4777171967527341</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5899518721290159</v>
+        <v>0.5867298533986244</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4155044041820641</v>
+        <v>0.4130991798748461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3065646074119965</v>
+        <v>0.3066776241513077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2010874084884706</v>
+        <v>0.2018273396857106</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5673366128871643</v>
+        <v>0.5657432084623391</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.504290177327262</v>
+        <v>0.503963530350496</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3425788386145511</v>
+        <v>0.3448474278762822</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.264450348350647</v>
+        <v>0.2636895337617001</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5933492514407697</v>
+        <v>0.5934712705599025</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.471047219508492</v>
+        <v>0.4714749087656553</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3374226950966457</v>
+        <v>0.3385562784032111</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2479555687173904</v>
+        <v>0.2463170903596943</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6888574334636922</v>
+        <v>0.6869467945946228</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5166882621168361</v>
+        <v>0.5218155338922573</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4090028195820486</v>
+        <v>0.4106006857648486</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3073835272926448</v>
+        <v>0.3113908598030166</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6652169608651558</v>
+        <v>0.6606027148206569</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6013805688713422</v>
+        <v>0.6061317888263277</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4469557081563331</v>
+        <v>0.4489486923585975</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3420361572676363</v>
+        <v>0.3504605215272772</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6628598183032499</v>
+        <v>0.6609769115948818</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5458964373368591</v>
+        <v>0.5479456867667506</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4131294969748149</v>
+        <v>0.410620391928438</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.313354961555515</v>
+        <v>0.3142974354459875</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8493644312088579</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9094257835646395</v>
+        <v>0.9094257835646397</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.743146549572741</v>
@@ -1229,7 +1229,7 @@
         <v>0.8585208805737168</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9169606901741906</v>
+        <v>0.9169606901741905</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7137656793249645</v>
@@ -1241,7 +1241,7 @@
         <v>0.8540326928037938</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9133842767826301</v>
+        <v>0.91338427678263</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6195942545364492</v>
+        <v>0.6137904659197738</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4556894035137941</v>
+        <v>0.4666841174515037</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7959939157343733</v>
+        <v>0.7944524101844832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8599889225265382</v>
+        <v>0.8593065924575899</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6728385034859953</v>
+        <v>0.6781127114739087</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6013712164746704</v>
+        <v>0.6064535084577106</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8042222108164541</v>
+        <v>0.8068329387444014</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8796810360247188</v>
+        <v>0.881367052183321</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6636406793749733</v>
+        <v>0.6706557942055127</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5514779284855923</v>
+        <v>0.5525935560221268</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8154686086791871</v>
+        <v>0.817714496899888</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8855219082192343</v>
+        <v>0.8830233210078559</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7538862370076489</v>
+        <v>0.7410707843659829</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.598990736859944</v>
+        <v>0.6045369788570806</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8928274722742794</v>
+        <v>0.8930752296488667</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9438548374924968</v>
+        <v>0.9448071267815086</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8007002882254064</v>
+        <v>0.7986054675837491</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7316853380752982</v>
+        <v>0.7352143015054986</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9019495350663086</v>
+        <v>0.8991683060918074</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9400102699570495</v>
+        <v>0.9398604570023528</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7555658609856978</v>
+        <v>0.7628953943902389</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.646587443720318</v>
+        <v>0.6455820923039058</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8863191793937714</v>
+        <v>0.888466994904261</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9357760771988219</v>
+        <v>0.9357340045946329</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.7686962696980472</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3793108031407735</v>
+        <v>0.3793108031407734</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5710569279594815</v>
@@ -1377,7 +1377,7 @@
         <v>0.7474215876050172</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3776267145201806</v>
+        <v>0.3776267145201807</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5299498197916038</v>
+        <v>0.5276388714513562</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5243378611073677</v>
+        <v>0.5300934394378443</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6680597707567089</v>
+        <v>0.6706504239171323</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.325334658238608</v>
+        <v>0.3325220352007101</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4933955307428014</v>
+        <v>0.4958316760599161</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6159955106396822</v>
+        <v>0.6177658018757645</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7146734584963891</v>
+        <v>0.7072260928285674</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3375209719081386</v>
+        <v>0.330459693286998</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5292890478465583</v>
+        <v>0.5282390222888529</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5888452251341522</v>
+        <v>0.5937193195526608</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7124679158657153</v>
+        <v>0.7097710372532052</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3436746487098151</v>
+        <v>0.3433754199423376</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6448978121823001</v>
+        <v>0.6480743903839481</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6528157894312165</v>
+        <v>0.6578250910673999</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7789953901936575</v>
+        <v>0.7833417716327475</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4294535296988029</v>
+        <v>0.4279499508310765</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6063356458972313</v>
+        <v>0.6133821507906848</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7294197118112087</v>
+        <v>0.7310627747658739</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8178596068665634</v>
+        <v>0.8216503799344517</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4300512945553533</v>
+        <v>0.4267631422620592</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6127410545710481</v>
+        <v>0.6104173820615888</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6729960838481107</v>
+        <v>0.6789303907550946</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7874739174058228</v>
+        <v>0.7850428224192647</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.413525017236897</v>
+        <v>0.4104358766623866</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.7660537587445664</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.5271029929256068</v>
+        <v>0.5271029929256067</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.393626188732463</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3907570172840064</v>
+        <v>0.3874654604756427</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5147607815582474</v>
+        <v>0.5150311122190135</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7556296551554899</v>
+        <v>0.7563643736250244</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.507210162074167</v>
+        <v>0.5048319360168926</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3202140740208899</v>
+        <v>0.3223657588631459</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.572423931228912</v>
+        <v>0.5672659081292526</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7338819699090952</v>
+        <v>0.7284887866737659</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4923234387027732</v>
+        <v>0.4917161535892999</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3669719021054673</v>
+        <v>0.3670139962564242</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5542187675361988</v>
+        <v>0.5517444514641751</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7521760320292745</v>
+        <v>0.7544045227948269</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.51337668759983</v>
+        <v>0.5097970491451871</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4727563066406554</v>
+        <v>0.4737022510085985</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5929897100791536</v>
+        <v>0.5961907622381758</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8206698754243555</v>
+        <v>0.821650463797242</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5938932217625001</v>
+        <v>0.59564658151198</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3937104506686795</v>
+        <v>0.3961508176496211</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6446289810106164</v>
+        <v>0.6474719295599511</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7969383803414504</v>
+        <v>0.7991727683792298</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5592204248644105</v>
+        <v>0.5601249534743136</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4222077329016831</v>
+        <v>0.4224358196192379</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6094149475681845</v>
+        <v>0.6101699688802954</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8016714745756546</v>
+        <v>0.8003243367816313</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5659722280857271</v>
+        <v>0.5685299754060839</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.8449873930939951</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.8125632039230002</v>
+        <v>0.8125632039230003</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.7958277729362752</v>
@@ -1649,7 +1649,7 @@
         <v>0.8633671719893724</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.8270541503922169</v>
+        <v>0.827054150392217</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6940383702219858</v>
+        <v>0.6937789309285558</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8276930307928307</v>
+        <v>0.8304315753562551</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8192997407240585</v>
+        <v>0.8133551375768372</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7807604942432886</v>
+        <v>0.7787023883061793</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7636289889115665</v>
+        <v>0.7653926552498809</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.806170092641918</v>
+        <v>0.806124195159331</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8562196101344934</v>
+        <v>0.8572491314367259</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.816411977756869</v>
+        <v>0.8172748403691259</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7403704701091438</v>
+        <v>0.7400900877944049</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.8246484340385715</v>
+        <v>0.824011925061043</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.845225104371532</v>
+        <v>0.8439533187590712</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8052252001490006</v>
+        <v>0.8069105689615866</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7606610485039851</v>
+        <v>0.7599428488268564</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.87860486356249</v>
+        <v>0.8806829566652776</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8719610876689371</v>
+        <v>0.8696127783676912</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8408628697033385</v>
+        <v>0.8425377738775026</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8236197489869638</v>
+        <v>0.8229495087592884</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8600091462595251</v>
+        <v>0.8596773490651629</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9004261036214278</v>
+        <v>0.9041354597068068</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.863911152034599</v>
+        <v>0.8645701407543811</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7845448998150156</v>
+        <v>0.7841816298202821</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.8629448160652917</v>
+        <v>0.8623536433505742</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.8796368443710572</v>
+        <v>0.8794390506452968</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.8455331929524957</v>
+        <v>0.8458252235235536</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.7394009288049429</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.5699882276435326</v>
+        <v>0.5699882276435325</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.6124500715253164</v>
@@ -1785,7 +1785,7 @@
         <v>0.7503946286360461</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.57610117350936</v>
+        <v>0.5761011735093599</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5895959911590974</v>
+        <v>0.5892186302267477</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6029960460006787</v>
+        <v>0.6018979610086747</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7252579731361181</v>
+        <v>0.722735961558566</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5509378898548398</v>
+        <v>0.5483933131303629</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5966757586258876</v>
+        <v>0.596819636909563</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6526731003065218</v>
+        <v>0.6525502219221899</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7453501026931323</v>
+        <v>0.7471208737010667</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5669832489508545</v>
+        <v>0.5682126630211883</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5969502185631814</v>
+        <v>0.5974177738967191</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.6331310428957156</v>
+        <v>0.6320030170039668</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.7392249884458382</v>
+        <v>0.7391325362013541</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.5643995916345295</v>
+        <v>0.5645825786395119</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6239272982458312</v>
+        <v>0.6245011751578173</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6357393794090347</v>
+        <v>0.6371852831719508</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7555973161638432</v>
+        <v>0.7550769432122362</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.587213656398439</v>
+        <v>0.5872145850178613</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.63018528379203</v>
+        <v>0.6302650562343636</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6861527292827271</v>
+        <v>0.6842175634522175</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7748644464845192</v>
+        <v>0.7755165052232785</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5961874028443134</v>
+        <v>0.5965986044490023</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.621649986495961</v>
+        <v>0.6216204807606376</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.6557008300055926</v>
+        <v>0.6559980911274189</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.761115136322835</v>
+        <v>0.7620546231573023</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.5891579818358557</v>
+        <v>0.5875899590350148</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>197663</v>
+        <v>197260</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>170938</v>
+        <v>171646</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>175962</v>
+        <v>174663</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>138012</v>
+        <v>137413</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>212626</v>
+        <v>212937</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>198207</v>
+        <v>196871</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>189801</v>
+        <v>189807</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>153146</v>
+        <v>153080</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>415275</v>
+        <v>417211</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>379065</v>
+        <v>378575</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>375050</v>
+        <v>374918</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>299200</v>
+        <v>301201</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>223294</v>
+        <v>224465</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>203947</v>
+        <v>205561</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>209662</v>
+        <v>209391</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>174875</v>
+        <v>174868</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>233956</v>
+        <v>234280</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>228192</v>
+        <v>226817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>219103</v>
+        <v>220134</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>182653</v>
+        <v>182369</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>451291</v>
+        <v>452256</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>423721</v>
+        <v>426216</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>418752</v>
+        <v>420943</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>346020</v>
+        <v>347563</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>271155</v>
+        <v>270238</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>233020</v>
+        <v>233063</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>385290</v>
+        <v>384194</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>266828</v>
+        <v>269663</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>298117</v>
+        <v>296305</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>246853</v>
+        <v>247199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>403352</v>
+        <v>403068</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>265745</v>
+        <v>265198</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>576619</v>
+        <v>578652</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>493679</v>
+        <v>490764</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>801660</v>
+        <v>801303</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>546861</v>
+        <v>549428</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>313346</v>
+        <v>315101</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>280043</v>
+        <v>279689</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>421863</v>
+        <v>420646</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>327227</v>
+        <v>323104</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>340617</v>
+        <v>338849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>294126</v>
+        <v>295126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>440138</v>
+        <v>439705</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>310046</v>
+        <v>307546</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>642041</v>
+        <v>637826</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>560315</v>
+        <v>558880</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>854458</v>
+        <v>852620</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>619039</v>
+        <v>619789</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>130449</v>
+        <v>130769</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>171329</v>
+        <v>172164</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>213240</v>
+        <v>213769</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>107477</v>
+        <v>106459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>121294</v>
+        <v>119256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>207555</v>
+        <v>209231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>240556</v>
+        <v>239554</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>147291</v>
+        <v>146934</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>262526</v>
+        <v>257951</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>392326</v>
+        <v>390666</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>463783</v>
+        <v>463853</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>264196</v>
+        <v>264013</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>165776</v>
+        <v>167173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>206668</v>
+        <v>207752</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>244951</v>
+        <v>243802</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>138921</v>
+        <v>137583</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>155978</v>
+        <v>155307</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>243671</v>
+        <v>244181</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>270576</v>
+        <v>269859</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>177927</v>
+        <v>178138</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>313468</v>
+        <v>309433</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>441607</v>
+        <v>441288</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>507266</v>
+        <v>507109</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>309092</v>
+        <v>307679</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>211599</v>
+        <v>210443</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>154990</v>
+        <v>154093</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>113094</v>
+        <v>113135</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74078</v>
+        <v>74351</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>210741</v>
+        <v>210149</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>196144</v>
+        <v>196017</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>132358</v>
+        <v>133235</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>110456</v>
+        <v>110138</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>433220</v>
+        <v>433309</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>358923</v>
+        <v>359249</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>254843</v>
+        <v>255699</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>194911</v>
+        <v>193623</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>247073</v>
+        <v>246388</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>192734</v>
+        <v>194646</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>150884</v>
+        <v>151473</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>113237</v>
+        <v>114713</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>247099</v>
+        <v>245385</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>233908</v>
+        <v>235756</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>172685</v>
+        <v>173455</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>142862</v>
+        <v>146381</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>483972</v>
+        <v>482597</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>415956</v>
+        <v>417517</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>312022</v>
+        <v>310127</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>246319</v>
+        <v>247060</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>125968</v>
+        <v>124789</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>96888</v>
+        <v>99225</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>167282</v>
+        <v>166958</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>176238</v>
+        <v>176098</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>139058</v>
+        <v>140148</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>132056</v>
+        <v>133172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>175793</v>
+        <v>176363</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>199532</v>
+        <v>199914</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>272080</v>
+        <v>274956</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>238354</v>
+        <v>238836</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>349626</v>
+        <v>350589</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>382327</v>
+        <v>381248</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>153271</v>
+        <v>150666</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>127356</v>
+        <v>128535</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>187632</v>
+        <v>187684</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>193424</v>
+        <v>193619</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>165483</v>
+        <v>165050</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>160672</v>
+        <v>161446</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>197154</v>
+        <v>196547</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>213216</v>
+        <v>213182</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>309768</v>
+        <v>312773</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>279461</v>
+        <v>279026</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>380002</v>
+        <v>380923</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>404024</v>
+        <v>404006</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>143516</v>
+        <v>142890</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>143106</v>
+        <v>144677</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>175782</v>
+        <v>176464</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>87905</v>
+        <v>89847</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>137235</v>
+        <v>137913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>170570</v>
+        <v>171061</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>195188</v>
+        <v>193154</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>89021</v>
+        <v>87159</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>290556</v>
+        <v>289979</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>323764</v>
+        <v>326444</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>382052</v>
+        <v>380606</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>183505</v>
+        <v>183345</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>174645</v>
+        <v>175506</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>178171</v>
+        <v>179538</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>204972</v>
+        <v>206115</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>116038</v>
+        <v>115632</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>168649</v>
+        <v>170609</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>201978</v>
+        <v>202433</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>223370</v>
+        <v>224405</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>113426</v>
+        <v>112559</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>336367</v>
+        <v>335092</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>370033</v>
+        <v>373296</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>422273</v>
+        <v>420970</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>220802</v>
+        <v>219152</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>240326</v>
+        <v>238302</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>337905</v>
+        <v>338082</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>493418</v>
+        <v>493898</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>363227</v>
+        <v>361524</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>204053</v>
+        <v>205424</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>390912</v>
+        <v>387390</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>500587</v>
+        <v>496908</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>376488</v>
+        <v>376023</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>459546</v>
+        <v>459599</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>742286</v>
+        <v>738972</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1004228</v>
+        <v>1007203</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>760230</v>
+        <v>754929</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>290758</v>
+        <v>291340</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>389257</v>
+        <v>391358</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>535888</v>
+        <v>536529</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>425303</v>
+        <v>426559</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>250888</v>
+        <v>252443</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>440222</v>
+        <v>442163</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>543598</v>
+        <v>545122</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>427645</v>
+        <v>428337</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>528716</v>
+        <v>529002</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>816212</v>
+        <v>817223</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1070309</v>
+        <v>1068511</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>838116</v>
+        <v>841904</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>515637</v>
+        <v>515444</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>642279</v>
+        <v>644404</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>634905</v>
+        <v>630298</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>620039</v>
+        <v>618404</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>598312</v>
+        <v>599694</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>663230</v>
+        <v>663192</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>706256</v>
+        <v>707105</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>676018</v>
+        <v>676732</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1130147</v>
+        <v>1129719</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1318348</v>
+        <v>1317331</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1352183</v>
+        <v>1350148</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1306222</v>
+        <v>1308956</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>565134</v>
+        <v>564600</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>681786</v>
+        <v>683399</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>675714</v>
+        <v>673894</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>667769</v>
+        <v>669099</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>645315</v>
+        <v>644790</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>707523</v>
+        <v>707250</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>742720</v>
+        <v>745780</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>715349</v>
+        <v>715894</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1197578</v>
+        <v>1197023</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1379572</v>
+        <v>1378627</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1407234</v>
+        <v>1406918</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1371609</v>
+        <v>1372082</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1929173</v>
+        <v>1927939</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2053656</v>
+        <v>2049916</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2450664</v>
+        <v>2442142</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1930290</v>
+        <v>1921374</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2015106</v>
+        <v>2015592</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2305234</v>
+        <v>2304800</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2628031</v>
+        <v>2634274</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2097022</v>
+        <v>2101569</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3969270</v>
+        <v>3972379</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>4392499</v>
+        <v>4384673</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>5104294</v>
+        <v>5103655</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>4064920</v>
+        <v>4066238</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2041506</v>
+        <v>2043384</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2165171</v>
+        <v>2170096</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2553181</v>
+        <v>2551423</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2057387</v>
+        <v>2057390</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2128276</v>
+        <v>2128545</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2423483</v>
+        <v>2416648</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2732095</v>
+        <v>2734394</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2205035</v>
+        <v>2206556</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4133505</v>
+        <v>4133309</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>4549083</v>
+        <v>4551145</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5255444</v>
+        <v>5261931</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>4243235</v>
+        <v>4231942</v>
       </c>
     </row>
     <row r="40">
